--- a/dist/川流车运力.xlsx
+++ b/dist/川流车运力.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>车牌号</t>
   </si>
@@ -50,63 +50,6 @@
     <t>沪DL6031</t>
   </si>
   <si>
-    <t>苏E0XU23</t>
-  </si>
-  <si>
-    <t>沪DK9757</t>
-  </si>
-  <si>
-    <t>沪NP9098</t>
-  </si>
-  <si>
-    <t>沪D60808</t>
-  </si>
-  <si>
-    <t>沪BEW509</t>
-  </si>
-  <si>
-    <t>苏E0XU86</t>
-  </si>
-  <si>
-    <t>苏E0XT76</t>
-  </si>
-  <si>
-    <t>沪BG1158</t>
-  </si>
-  <si>
-    <t>沪DCC722</t>
-  </si>
-  <si>
-    <t>沪BJU300</t>
-  </si>
-  <si>
-    <t>沪BUC816</t>
-  </si>
-  <si>
-    <t>沪BJU322</t>
-  </si>
-  <si>
-    <t>沪BXZ182</t>
-  </si>
-  <si>
-    <t>沪NR0061</t>
-  </si>
-  <si>
-    <t>沪BJG103</t>
-  </si>
-  <si>
-    <t>沪DL9723</t>
-  </si>
-  <si>
-    <t>沪DP3967</t>
-  </si>
-  <si>
-    <t>沪BEW701</t>
-  </si>
-  <si>
-    <t>沪D60723</t>
-  </si>
-  <si>
     <t>上海-上海市-松江区-九泾路1000</t>
   </si>
   <si>
@@ -120,63 +63,6 @@
   </si>
   <si>
     <t>121.289116,31.143822</t>
-  </si>
-  <si>
-    <t>121.289116,31.143823</t>
-  </si>
-  <si>
-    <t>121.289116,31.143824</t>
-  </si>
-  <si>
-    <t>121.289116,31.143825</t>
-  </si>
-  <si>
-    <t>121.289116,31.143826</t>
-  </si>
-  <si>
-    <t>121.289116,31.143827</t>
-  </si>
-  <si>
-    <t>121.289116,31.143828</t>
-  </si>
-  <si>
-    <t>121.289116,31.143829</t>
-  </si>
-  <si>
-    <t>121.289116,31.143830</t>
-  </si>
-  <si>
-    <t>121.289116,31.143831</t>
-  </si>
-  <si>
-    <t>121.289116,31.143832</t>
-  </si>
-  <si>
-    <t>121.289116,31.143833</t>
-  </si>
-  <si>
-    <t>121.289116,31.143834</t>
-  </si>
-  <si>
-    <t>121.289116,31.143835</t>
-  </si>
-  <si>
-    <t>121.289116,31.143836</t>
-  </si>
-  <si>
-    <t>121.289116,31.143837</t>
-  </si>
-  <si>
-    <t>121.289116,31.143838</t>
-  </si>
-  <si>
-    <t>121.289116,31.143839</t>
-  </si>
-  <si>
-    <t>121.289116,31.143840</t>
-  </si>
-  <si>
-    <t>121.289116,31.143841</t>
   </si>
 </sst>
 </file>
@@ -542,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -579,13 +465,13 @@
         <v>43171.496053240699</v>
       </c>
       <c r="D2" s="1">
-        <v>43171.846296296288</v>
+        <v>43171.916296296302</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -599,13 +485,13 @@
         <v>43171.496053240699</v>
       </c>
       <c r="D3" s="1">
-        <v>43171.846296296288</v>
+        <v>43171.916296296302</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -619,394 +505,90 @@
         <v>43171.496053240699</v>
       </c>
       <c r="D4" s="1">
-        <v>43171.846296296288</v>
+        <v>43171.916296296302</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1">
-        <v>43171.496053240699</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43171.846296296288</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A23">
